--- a/项目进度.xlsx
+++ b/项目进度.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>模块</t>
   </si>
@@ -38,6 +38,9 @@
     <t>注册</t>
   </si>
   <si>
+    <t>完成 2016-3-3</t>
+  </si>
+  <si>
     <t>组卷</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>账号登录页面</t>
+  </si>
+  <si>
+    <t>陈阿妹</t>
   </si>
   <si>
     <t>第三方登录回调页面</t>
@@ -115,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -521,7 +527,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -554,142 +560,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度.xlsx
+++ b/项目进度.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9930"/>
+    <workbookView windowWidth="21495" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>模块</t>
   </si>
@@ -47,6 +46,9 @@
     <t>组卷第一步（按知识点选题）</t>
   </si>
   <si>
+    <t>完成 2016-3-7</t>
+  </si>
+  <si>
     <t>组卷第一步（按教材选题）</t>
   </si>
   <si>
@@ -60,6 +62,9 @@
   </si>
   <si>
     <t>陈阿妹</t>
+  </si>
+  <si>
+    <t>完成 2016-3-4</t>
   </si>
   <si>
     <t>第三方登录回调页面</t>
@@ -121,19 +126,170 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +302,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,24 +497,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -184,13 +753,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -241,71 +853,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,7 +1139,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -574,143 +1186,158 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度.xlsx
+++ b/项目进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>模块</t>
   </si>
@@ -129,6 +129,13 @@
   <si>
     <t>毛毛虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成 2016-3-9</t>
   </si>
 </sst>
 </file>
@@ -523,7 +530,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -638,6 +645,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
@@ -667,6 +677,12 @@
       </c>
       <c r="B11" t="s">
         <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/项目进度.xlsx
+++ b/项目进度.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10365"/>
+    <workbookView windowWidth="23880" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>模块</t>
   </si>
@@ -46,6 +47,9 @@
     <t>组卷第一步（按知识点选题）</t>
   </si>
   <si>
+    <t>毛毛虫</t>
+  </si>
+  <si>
     <t>完成 2016-3-7</t>
   </si>
   <si>
@@ -76,15 +80,24 @@
     <t>列表页</t>
   </si>
   <si>
+    <t>完成 2016-3-5</t>
+  </si>
+  <si>
+    <t>试卷</t>
+  </si>
+  <si>
     <t>详情页</t>
   </si>
   <si>
-    <t>试卷</t>
+    <t>完成 2016-3-8</t>
   </si>
   <si>
     <t>测评</t>
   </si>
   <si>
+    <t>完成 2016-3-9</t>
+  </si>
+  <si>
     <t>组课</t>
   </si>
   <si>
@@ -119,37 +132,21 @@
   </si>
   <si>
     <t>我的测评（老师）</t>
-  </si>
-  <si>
-    <t>完成 2016-3-5</t>
-  </si>
-  <si>
-    <t>完成 2016-3-8</t>
-  </si>
-  <si>
-    <t>毛毛虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛毛虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成 2016-3-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -177,8 +174,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,11 +202,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -244,71 +259,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,7 +508,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -526,14 +540,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -543,7 +558,7 @@
     <col min="6" max="6" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -577,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -585,177 +600,182 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/项目进度.xlsx
+++ b/项目进度.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>模块</t>
   </si>
@@ -35,12 +34,18 @@
     <t>程序完成情况</t>
   </si>
   <si>
+    <t>测试完成情况</t>
+  </si>
+  <si>
     <t>注册</t>
   </si>
   <si>
     <t>完成 2016-3-3</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>组卷</t>
   </si>
   <si>
@@ -71,7 +76,13 @@
     <t>完成 2016-3-4</t>
   </si>
   <si>
+    <t>完成 2016-3-11</t>
+  </si>
+  <si>
     <t>第三方登录回调页面</t>
+  </si>
+  <si>
+    <t>完成 2016-3-12</t>
   </si>
   <si>
     <t>题库</t>
@@ -139,19 +150,170 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +326,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,24 +521,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -202,13 +777,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -259,71 +877,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,13 +1160,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -556,9 +1174,10 @@
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="33.25" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,201 +1196,219 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/项目进度.xlsx
+++ b/项目进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10365"/>
+    <workbookView windowWidth="21495" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>模块</t>
   </si>
@@ -118,31 +118,13 @@
     <t>主页</t>
   </si>
   <si>
+    <t>完成2016-3-15</t>
+  </si>
+  <si>
     <t>个人信息</t>
   </si>
   <si>
-    <t>我的收藏（老师）</t>
-  </si>
-  <si>
-    <t>我的错题（老师）</t>
-  </si>
-  <si>
-    <t>我的作业（老师）</t>
-  </si>
-  <si>
-    <t>我的测评（学生）</t>
-  </si>
-  <si>
-    <t>我的学生（老师）</t>
-  </si>
-  <si>
-    <t>组卷记录（老师）</t>
-  </si>
-  <si>
-    <t>我的教案（老师）</t>
-  </si>
-  <si>
-    <t>我的测评（老师）</t>
+    <t>学习中心</t>
   </si>
 </sst>
 </file>
@@ -152,8 +134,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,6 +144,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -177,137 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +310,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,6 +382,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,12 +478,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,102 +491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +530,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,30 +562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -613,9 +578,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,13 +1142,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -1177,7 +1159,7 @@
     <col min="7" max="7" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" customHeight="1" spans="2:4">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" customHeight="1" spans="2:4">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1253,7 +1235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" customHeight="1" spans="2:6">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1304,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1318,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" customHeight="1" spans="2:4">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1343,72 +1325,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" customHeight="1" spans="1:1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:4">
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" customHeight="1" spans="2:2">
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
